--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,12 +36,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="18"/>
-      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -89,7 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -97,14 +91,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -476,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -487,17 +478,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>First name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Last name </t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -514,7 +505,7 @@
           <t>Johns</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>dave.johns@georgiancollege.ca</t>
         </is>
@@ -548,7 +539,7 @@
           <t>Korchynskyi</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>anton.korchynskyi@georgiancollege.ca</t>
         </is>
@@ -565,53 +556,53 @@
           <t>Brown</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>wayne.brown@georgiancollege.ca</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30.75" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>logan.dobson@georgiancollege.ca</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30.75" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>ann.anderson@georgiancollege.ca</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
@@ -623,12 +614,12 @@
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -640,12 +631,12 @@
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
@@ -657,12 +648,12 @@
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -674,29 +665,29 @@
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>matt.cote@georgiancollege.ca</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30.75" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
@@ -708,12 +699,12 @@
       </c>
     </row>
     <row r="14" ht="30.75" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -725,12 +716,12 @@
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Anton</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
@@ -742,12 +733,12 @@
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Vlad</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Davis</t>
         </is>
@@ -759,12 +750,12 @@
       </c>
     </row>
     <row r="17" ht="30.75" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -776,12 +767,12 @@
       </c>
     </row>
     <row r="18" ht="30.75" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -793,12 +784,12 @@
       </c>
     </row>
     <row r="19" ht="30.75" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -810,12 +801,12 @@
       </c>
     </row>
     <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -827,12 +818,12 @@
       </c>
     </row>
     <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Anton</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -844,12 +835,12 @@
       </c>
     </row>
     <row r="22" ht="30.75" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -861,12 +852,12 @@
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Leblanc</t>
         </is>
@@ -878,12 +869,12 @@
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Leblanc</t>
         </is>
@@ -895,12 +886,12 @@
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -912,12 +903,12 @@
       </c>
     </row>
     <row r="26" ht="30.75" customHeight="1">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Leblanc</t>
         </is>
@@ -929,12 +920,12 @@
       </c>
     </row>
     <row r="27" ht="30.75" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -946,12 +937,12 @@
       </c>
     </row>
     <row r="28" ht="30.75" customHeight="1">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
@@ -963,12 +954,12 @@
       </c>
     </row>
     <row r="29" ht="30.75" customHeight="1">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -980,12 +971,12 @@
       </c>
     </row>
     <row r="30" ht="30.75" customHeight="1">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -997,12 +988,12 @@
       </c>
     </row>
     <row r="31" ht="30.75" customHeight="1">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1014,12 +1005,12 @@
       </c>
     </row>
     <row r="32" ht="30.75" customHeight="1">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Leblanc</t>
         </is>
@@ -1031,12 +1022,12 @@
       </c>
     </row>
     <row r="33" ht="30.75" customHeight="1">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Lewis</t>
         </is>
@@ -1048,12 +1039,12 @@
       </c>
     </row>
     <row r="34" ht="30.75" customHeight="1">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1065,12 +1056,12 @@
       </c>
     </row>
     <row r="35" ht="30.75" customHeight="1">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>Lorenzo</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -1082,12 +1073,12 @@
       </c>
     </row>
     <row r="36" ht="30.75" customHeight="1">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -1099,12 +1090,12 @@
       </c>
     </row>
     <row r="37" ht="30.75" customHeight="1">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -1116,12 +1107,12 @@
       </c>
     </row>
     <row r="38" ht="30.75" customHeight="1">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -1133,12 +1124,12 @@
       </c>
     </row>
     <row r="39" ht="30.75" customHeight="1">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -1150,12 +1141,12 @@
       </c>
     </row>
     <row r="40" ht="30.75" customHeight="1">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1167,12 +1158,12 @@
       </c>
     </row>
     <row r="41" ht="30.75" customHeight="1">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -1184,12 +1175,12 @@
       </c>
     </row>
     <row r="42" ht="30.75" customHeight="1">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Lorenzo</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1201,12 +1192,12 @@
       </c>
     </row>
     <row r="43" ht="30.75" customHeight="1">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -1218,12 +1209,12 @@
       </c>
     </row>
     <row r="44" ht="30.75" customHeight="1">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
@@ -1235,12 +1226,12 @@
       </c>
     </row>
     <row r="45" ht="30.75" customHeight="1">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1252,12 +1243,12 @@
       </c>
     </row>
     <row r="46" ht="30.75" customHeight="1">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>Rick</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
@@ -1269,12 +1260,12 @@
       </c>
     </row>
     <row r="47" ht="30.75" customHeight="1">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -1286,12 +1277,12 @@
       </c>
     </row>
     <row r="48" ht="30.75" customHeight="1">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1303,12 +1294,12 @@
       </c>
     </row>
     <row r="49" ht="30.75" customHeight="1">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1320,12 +1311,12 @@
       </c>
     </row>
     <row r="50" ht="30.75" customHeight="1">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
@@ -1337,12 +1328,12 @@
       </c>
     </row>
     <row r="51" ht="30.75" customHeight="1">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -1354,12 +1345,12 @@
       </c>
     </row>
     <row r="52" ht="30.75" customHeight="1">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
@@ -1371,12 +1362,12 @@
       </c>
     </row>
     <row r="53" ht="30.75" customHeight="1">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -1388,12 +1379,12 @@
       </c>
     </row>
     <row r="54" ht="30.75" customHeight="1">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1405,12 +1396,12 @@
       </c>
     </row>
     <row r="55" ht="30.75" customHeight="1">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1422,12 +1413,12 @@
       </c>
     </row>
     <row r="56" ht="30.75" customHeight="1">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1439,12 +1430,12 @@
       </c>
     </row>
     <row r="57" ht="30.75" customHeight="1">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>King</t>
         </is>
@@ -1456,12 +1447,12 @@
       </c>
     </row>
     <row r="58" ht="30.75" customHeight="1">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Lorenzo</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -1473,12 +1464,12 @@
       </c>
     </row>
     <row r="59" ht="30.75" customHeight="1">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -1490,12 +1481,12 @@
       </c>
     </row>
     <row r="60" ht="30.75" customHeight="1">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Lorenzo</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>King</t>
         </is>
@@ -1507,12 +1498,12 @@
       </c>
     </row>
     <row r="61" ht="30.75" customHeight="1">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>Harris</t>
         </is>
@@ -1524,12 +1515,12 @@
       </c>
     </row>
     <row r="62" ht="30.75" customHeight="1">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -1541,12 +1532,12 @@
       </c>
     </row>
     <row r="63" ht="30.75" customHeight="1">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1558,12 +1549,12 @@
       </c>
     </row>
     <row r="64" ht="30.75" customHeight="1">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>Harris</t>
         </is>
@@ -1575,12 +1566,12 @@
       </c>
     </row>
     <row r="65" ht="30.75" customHeight="1">
-      <c r="A65" s="4" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>Rick</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -1592,12 +1583,12 @@
       </c>
     </row>
     <row r="66" ht="30.75" customHeight="1">
-      <c r="A66" s="4" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -1609,12 +1600,12 @@
       </c>
     </row>
     <row r="67" ht="30.75" customHeight="1">
-      <c r="A67" s="4" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>Lewis</t>
         </is>
@@ -1626,12 +1617,12 @@
       </c>
     </row>
     <row r="68" ht="30.75" customHeight="1">
-      <c r="A68" s="4" t="inlineStr">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1643,12 +1634,12 @@
       </c>
     </row>
     <row r="69" ht="30.75" customHeight="1">
-      <c r="A69" s="4" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1660,12 +1651,12 @@
       </c>
     </row>
     <row r="70" ht="30.75" customHeight="1">
-      <c r="A70" s="4" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1677,12 +1668,12 @@
       </c>
     </row>
     <row r="71" ht="30.75" customHeight="1">
-      <c r="A71" s="4" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>Cote</t>
         </is>
@@ -1694,12 +1685,12 @@
       </c>
     </row>
     <row r="72" ht="30.75" customHeight="1">
-      <c r="A72" s="4" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>Harris</t>
         </is>
@@ -1711,12 +1702,12 @@
       </c>
     </row>
     <row r="73" ht="30.75" customHeight="1">
-      <c r="A73" s="4" t="inlineStr">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>Vlad</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1728,12 +1719,12 @@
       </c>
     </row>
     <row r="74" ht="30.75" customHeight="1">
-      <c r="A74" s="4" t="inlineStr">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>Vlad</t>
         </is>
       </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1745,12 +1736,12 @@
       </c>
     </row>
     <row r="75" ht="30.75" customHeight="1">
-      <c r="A75" s="4" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>Nick</t>
         </is>
       </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1762,12 +1753,12 @@
       </c>
     </row>
     <row r="76" ht="30.75" customHeight="1">
-      <c r="A76" s="4" t="inlineStr">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>Rick</t>
         </is>
       </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1779,12 +1770,12 @@
       </c>
     </row>
     <row r="77" ht="30.75" customHeight="1">
-      <c r="A77" s="4" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
@@ -1796,12 +1787,12 @@
       </c>
     </row>
     <row r="78" ht="30.75" customHeight="1">
-      <c r="A78" s="4" t="inlineStr">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>King</t>
         </is>
@@ -1813,12 +1804,12 @@
       </c>
     </row>
     <row r="79" ht="30.75" customHeight="1">
-      <c r="A79" s="4" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>Anton</t>
         </is>
       </c>
-      <c r="B79" s="5" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>Lewis</t>
         </is>
@@ -1830,12 +1821,12 @@
       </c>
     </row>
     <row r="80" ht="30.75" customHeight="1">
-      <c r="A80" s="4" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -1847,12 +1838,12 @@
       </c>
     </row>
     <row r="81" ht="30.75" customHeight="1">
-      <c r="A81" s="4" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>Vlad</t>
         </is>
       </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>Lewis</t>
         </is>
@@ -1864,12 +1855,12 @@
       </c>
     </row>
     <row r="82" ht="30.75" customHeight="1">
-      <c r="A82" s="4" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>Rick</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -1881,12 +1872,12 @@
       </c>
     </row>
     <row r="83" ht="30.75" customHeight="1">
-      <c r="A83" s="4" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t>Vega</t>
         </is>
@@ -1898,12 +1889,12 @@
       </c>
     </row>
     <row r="84" ht="30.75" customHeight="1">
-      <c r="A84" s="4" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
@@ -1915,12 +1906,12 @@
       </c>
     </row>
     <row r="85" ht="30.75" customHeight="1">
-      <c r="A85" s="4" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -1932,12 +1923,12 @@
       </c>
     </row>
     <row r="86" ht="30.75" customHeight="1">
-      <c r="A86" s="4" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>Vlad</t>
         </is>
       </c>
-      <c r="B86" s="5" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1949,12 +1940,12 @@
       </c>
     </row>
     <row r="87" ht="30.75" customHeight="1">
-      <c r="A87" s="4" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B87" s="5" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
@@ -1966,12 +1957,12 @@
       </c>
     </row>
     <row r="88" ht="30.75" customHeight="1">
-      <c r="A88" s="4" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B88" s="5" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -1983,12 +1974,12 @@
       </c>
     </row>
     <row r="89" ht="30.75" customHeight="1">
-      <c r="A89" s="4" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
@@ -2000,12 +1991,12 @@
       </c>
     </row>
     <row r="90" ht="30.75" customHeight="1">
-      <c r="A90" s="4" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B90" s="5" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -2017,12 +2008,12 @@
       </c>
     </row>
     <row r="91" ht="30.75" customHeight="1">
-      <c r="A91" s="4" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>Jennifer</t>
         </is>
       </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
@@ -2034,12 +2025,12 @@
       </c>
     </row>
     <row r="92" ht="30.75" customHeight="1">
-      <c r="A92" s="4" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
         <is>
           <t>Lewis</t>
         </is>
@@ -2051,12 +2042,12 @@
       </c>
     </row>
     <row r="93" ht="30.75" customHeight="1">
-      <c r="A93" s="4" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -2068,12 +2059,12 @@
       </c>
     </row>
     <row r="94" ht="30.75" customHeight="1">
-      <c r="A94" s="4" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B94" s="5" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -2085,12 +2076,12 @@
       </c>
     </row>
     <row r="95" ht="30.75" customHeight="1">
-      <c r="A95" s="4" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B95" s="5" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -2102,12 +2093,12 @@
       </c>
     </row>
     <row r="96" ht="30.75" customHeight="1">
-      <c r="A96" s="4" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="B96" s="5" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>Belanger</t>
         </is>
@@ -2119,12 +2110,12 @@
       </c>
     </row>
     <row r="97" ht="30.75" customHeight="1">
-      <c r="A97" s="4" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B97" s="5" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -2136,12 +2127,12 @@
       </c>
     </row>
     <row r="98" ht="30.75" customHeight="1">
-      <c r="A98" s="4" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>Logan</t>
         </is>
       </c>
-      <c r="B98" s="5" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>King</t>
         </is>
@@ -2153,12 +2144,12 @@
       </c>
     </row>
     <row r="99" ht="30.75" customHeight="1">
-      <c r="A99" s="4" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>Ann</t>
         </is>
       </c>
-      <c r="B99" s="5" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t>Dobson</t>
         </is>
@@ -2170,12 +2161,12 @@
       </c>
     </row>
     <row r="100" ht="30.75" customHeight="1">
-      <c r="A100" s="4" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="B100" s="5" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t>Leach</t>
         </is>
@@ -2188,8 +2179,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8850" yWindow="645" windowWidth="17025" windowHeight="14730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -467,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -590,7 +590,7 @@
           <t>Anderson</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>ann.anderson@georgiancollege.ca</t>
         </is>
@@ -2180,8 +2180,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8850" yWindow="645" windowWidth="17025" windowHeight="14730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -624,7 +624,7 @@
           <t>Cote</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>sam.cote@georgiancollege.ca</t>
         </is>
@@ -641,7 +641,7 @@
           <t>Baker</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>sam.baker@georgiancollege.ca</t>
         </is>
@@ -2180,6 +2180,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
